--- a/hourly_production_lines.xlsx
+++ b/hourly_production_lines.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/OmarPerez/PycharmProjects/new_dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/OmarPerez/Documents/production_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13643B1E-E72E-414F-9527-8DF3A1405AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AB1E5D-4819-594B-9CAF-3A0DF2BAF986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="1700" windowWidth="27640" windowHeight="16940" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
   </bookViews>
@@ -66,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,8 +103,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +122,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -231,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -276,6 +289,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -595,7 +614,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +665,7 @@
         <v>145</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -670,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="5">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="N2" s="5">
         <v>0</v>
@@ -683,8 +702,8 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
+      <c r="C3" s="16">
+        <v>230</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -708,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="5">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="N3" s="5">
         <v>0</v>
@@ -721,8 +740,8 @@
       <c r="B4" s="8">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
-        <v>0</v>
+      <c r="C4" s="17">
+        <v>230</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -746,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="9">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="N4" s="9">
         <v>0</v>
@@ -759,8 +778,8 @@
       <c r="B5" s="14">
         <v>0</v>
       </c>
-      <c r="C5" s="15">
-        <v>0</v>
+      <c r="C5" s="17">
+        <v>230</v>
       </c>
       <c r="D5" s="15">
         <v>0</v>
@@ -784,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="15">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="N5" s="15">
         <v>0</v>
@@ -797,8 +816,8 @@
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="5">
-        <v>0</v>
+      <c r="C6" s="16">
+        <v>230</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
@@ -822,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
@@ -835,8 +854,8 @@
       <c r="B7" s="8">
         <v>0</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
+      <c r="C7" s="16">
+        <v>230</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -847,8 +866,8 @@
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="9">
-        <v>0</v>
+      <c r="H7" s="5">
+        <v>230</v>
       </c>
       <c r="I7" s="9">
         <v>0</v>
@@ -859,8 +878,8 @@
       <c r="L7" s="8">
         <v>0</v>
       </c>
-      <c r="M7" s="9">
-        <v>0</v>
+      <c r="M7" s="5">
+        <v>230</v>
       </c>
       <c r="N7" s="9">
         <v>0</v>
@@ -873,8 +892,8 @@
       <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
+      <c r="C8" s="17">
+        <v>230</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -886,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="I8" s="9">
         <v>0</v>
@@ -898,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="9">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="N8" s="9">
         <v>0</v>
@@ -911,8 +930,8 @@
       <c r="B9" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="9">
-        <v>0</v>
+      <c r="C9" s="17">
+        <v>230</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -923,8 +942,8 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="9">
-        <v>0</v>
+      <c r="H9" s="15">
+        <v>230</v>
       </c>
       <c r="I9" s="9">
         <v>0</v>
@@ -935,8 +954,8 @@
       <c r="L9" s="8">
         <v>0</v>
       </c>
-      <c r="M9" s="9">
-        <v>0</v>
+      <c r="M9" s="15">
+        <v>230</v>
       </c>
       <c r="N9" s="9">
         <v>0</v>
@@ -949,8 +968,8 @@
       <c r="B10" s="8">
         <v>0</v>
       </c>
-      <c r="C10" s="9">
-        <v>0</v>
+      <c r="C10" s="16">
+        <v>230</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -961,8 +980,8 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="9">
-        <v>0</v>
+      <c r="H10" s="5">
+        <v>230</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
@@ -973,8 +992,8 @@
       <c r="L10" s="8">
         <v>0</v>
       </c>
-      <c r="M10" s="9">
-        <v>0</v>
+      <c r="M10" s="5">
+        <v>230</v>
       </c>
       <c r="N10" s="9">
         <v>0</v>
@@ -988,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="9">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -1000,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="I11" s="9">
         <v>0</v>
@@ -1012,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="9">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="N11" s="9">
         <v>0</v>
@@ -1028,7 +1047,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" ref="C12:D12" si="0">SUM(C2:C11)</f>
-        <v>0</v>
+        <v>2185</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
@@ -1043,7 +1062,7 @@
       </c>
       <c r="H12" s="12">
         <f t="shared" ref="H12:I12" si="1">SUM(H2:H11)</f>
-        <v>1035</v>
+        <v>2185</v>
       </c>
       <c r="I12" s="12">
         <f t="shared" si="1"/>
@@ -1058,7 +1077,7 @@
       </c>
       <c r="M12" s="12">
         <f t="shared" ref="M12:N12" si="2">SUM(M2:M11)</f>
-        <v>0</v>
+        <v>2185</v>
       </c>
       <c r="N12" s="12">
         <f t="shared" si="2"/>

--- a/hourly_production_lines.xlsx
+++ b/hourly_production_lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/OmarPerez/Documents/production_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AB1E5D-4819-594B-9CAF-3A0DF2BAF986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F137F01-2486-EC49-B431-79ABCC077D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="1700" windowWidth="27640" windowHeight="16940" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,7 +662,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="B2" s="4">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="C2" s="5">
         <v>115</v>
@@ -674,7 +674,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H2" s="5">
         <v>115</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B12" s="11">
         <f>SUM(B2:B11)</f>
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" ref="C12:D12" si="0">SUM(C2:C11)</f>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G12" s="11">
         <f>SUM(G2:G11)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" ref="H12:I12" si="1">SUM(H2:H11)</f>

--- a/hourly_production_lines.xlsx
+++ b/hourly_production_lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/OmarPerez/Documents/production_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F137F01-2486-EC49-B431-79ABCC077D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B2E7A7-4F3C-C247-A5E1-26EC0F66D5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="1700" windowWidth="27640" windowHeight="16940" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,7 +700,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="C3" s="16">
         <v>230</v>
@@ -712,7 +712,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="H3" s="5">
         <v>230</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B12" s="11">
         <f>SUM(B2:B11)</f>
-        <v>102</v>
+        <v>321</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" ref="C12:D12" si="0">SUM(C2:C11)</f>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G12" s="11">
         <f>SUM(G2:G11)</f>
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" ref="H12:I12" si="1">SUM(H2:H11)</f>

--- a/hourly_production_lines.xlsx
+++ b/hourly_production_lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/OmarPerez/Documents/production_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B2E7A7-4F3C-C247-A5E1-26EC0F66D5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B15A7B7-EA51-2746-A934-B5E7E9284C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="1700" windowWidth="27640" windowHeight="16940" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,10 +738,10 @@
         <v>0.25</v>
       </c>
       <c r="B4" s="8">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="C4" s="17">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0.25</v>
       </c>
       <c r="G4" s="8">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="H4" s="9">
         <v>230</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="15">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c r="I5" s="15">
         <v>0</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="B12" s="11">
         <f>SUM(B2:B11)</f>
-        <v>321</v>
+        <v>462</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" ref="C12:D12" si="0">SUM(C2:C11)</f>
-        <v>2185</v>
+        <v>2109</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
@@ -1058,11 +1058,11 @@
       </c>
       <c r="G12" s="11">
         <f>SUM(G2:G11)</f>
-        <v>169</v>
+        <v>326</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" ref="H12:I12" si="1">SUM(H2:H11)</f>
-        <v>2185</v>
+        <v>2109</v>
       </c>
       <c r="I12" s="12">
         <f t="shared" si="1"/>

--- a/hourly_production_lines.xlsx
+++ b/hourly_production_lines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/OmarPerez/Documents/production_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B15A7B7-EA51-2746-A934-B5E7E9284C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174A7FB3-FC28-7646-A97F-76750B9C35AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1700" windowWidth="27640" windowHeight="16940" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
+    <workbookView xWindow="10980" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,7 +776,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="B5" s="14">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="C5" s="17">
         <v>230</v>
@@ -788,7 +788,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="G5" s="14">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="H5" s="15">
         <v>154</v>
@@ -814,7 +814,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B6" s="4">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="C6" s="16">
         <v>230</v>
@@ -826,7 +826,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="H6" s="5">
         <v>230</v>
@@ -852,7 +852,7 @@
         <v>0.375</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="C7" s="16">
         <v>230</v>
@@ -864,7 +864,7 @@
         <v>0.375</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="H7" s="5">
         <v>230</v>
@@ -890,7 +890,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B8" s="8">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="C8" s="17">
         <v>230</v>
@@ -902,7 +902,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="H8" s="9">
         <v>230</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B12" s="11">
         <f>SUM(B2:B11)</f>
-        <v>462</v>
+        <v>1163</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" ref="C12:D12" si="0">SUM(C2:C11)</f>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G12" s="11">
         <f>SUM(G2:G11)</f>
-        <v>326</v>
+        <v>908</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" ref="H12:I12" si="1">SUM(H2:H11)</f>

--- a/hourly_production_lines.xlsx
+++ b/hourly_production_lines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/OmarPerez/Documents/production_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174A7FB3-FC28-7646-A97F-76750B9C35AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4ABCAD-532B-D24F-9344-B6B5DAE472D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,7 +890,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B8" s="8">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C8" s="17">
         <v>230</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B12" s="11">
         <f>SUM(B2:B11)</f>
-        <v>1163</v>
+        <v>1168</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" ref="C12:D12" si="0">SUM(C2:C11)</f>

--- a/hourly_production_lines.xlsx
+++ b/hourly_production_lines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/OmarPerez/Documents/production_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4ABCAD-532B-D24F-9344-B6B5DAE472D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F8366D-9D4E-7348-B30B-58F7E6A6A5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,7 +686,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="L2" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M2" s="5">
         <v>115</v>
@@ -724,7 +724,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="M3" s="5">
         <v>230</v>
@@ -762,7 +762,7 @@
         <v>0.25</v>
       </c>
       <c r="L4" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4" s="9">
         <v>230</v>
@@ -800,7 +800,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="L5" s="14">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="M5" s="15">
         <v>230</v>
@@ -838,7 +838,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L6" s="4">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="M6" s="5">
         <v>230</v>
@@ -876,7 +876,7 @@
         <v>0.375</v>
       </c>
       <c r="L7" s="8">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M7" s="5">
         <v>230</v>
@@ -914,7 +914,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="L8" s="8">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="M8" s="9">
         <v>230</v>
@@ -928,7 +928,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B9" s="8">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="C9" s="17">
         <v>230</v>
@@ -940,7 +940,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="H9" s="15">
         <v>230</v>
@@ -952,7 +952,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="L9" s="8">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="M9" s="15">
         <v>230</v>
@@ -966,7 +966,7 @@
         <v>0.5</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10" s="16">
         <v>230</v>
@@ -978,7 +978,7 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="H10" s="5">
         <v>230</v>
@@ -990,7 +990,7 @@
         <v>0.5</v>
       </c>
       <c r="L10" s="8">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M10" s="5">
         <v>230</v>
@@ -1004,7 +1004,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="B11" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C11" s="9">
         <v>230</v>
@@ -1016,7 +1016,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="H11" s="9">
         <v>230</v>
@@ -1028,7 +1028,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="L11" s="8">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="M11" s="9">
         <v>230</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B12" s="11">
         <f>SUM(B2:B11)</f>
-        <v>1168</v>
+        <v>1482</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" ref="C12:D12" si="0">SUM(C2:C11)</f>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G12" s="11">
         <f>SUM(G2:G11)</f>
-        <v>908</v>
+        <v>1516</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" ref="H12:I12" si="1">SUM(H2:H11)</f>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="L12" s="11">
         <f>SUM(L2:L11)</f>
-        <v>0</v>
+        <v>1679</v>
       </c>
       <c r="M12" s="12">
         <f t="shared" ref="M12:N12" si="2">SUM(M2:M11)</f>

--- a/hourly_production_lines.xlsx
+++ b/hourly_production_lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/OmarPerez/Documents/production_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F8366D-9D4E-7348-B30B-58F7E6A6A5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E62A20-560D-B241-8833-AE3E504965C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,7 +662,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="B2" s="4">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5">
         <v>115</v>
@@ -674,7 +674,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="G2" s="4">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H2" s="5">
         <v>115</v>
@@ -686,7 +686,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="L2" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M2" s="5">
         <v>115</v>
@@ -700,7 +700,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="B3" s="4">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C3" s="16">
         <v>230</v>
@@ -712,7 +712,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="G3" s="4">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="H3" s="5">
         <v>230</v>
@@ -724,7 +724,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="L3" s="4">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="M3" s="5">
         <v>230</v>
@@ -737,9 +737,7 @@
       <c r="A4" s="7">
         <v>0.25</v>
       </c>
-      <c r="B4" s="8">
-        <v>141</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="17">
         <v>154</v>
       </c>
@@ -749,9 +747,7 @@
       <c r="F4" s="7">
         <v>0.25</v>
       </c>
-      <c r="G4" s="8">
-        <v>157</v>
-      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>230</v>
       </c>
@@ -761,9 +757,7 @@
       <c r="K4" s="7">
         <v>0.25</v>
       </c>
-      <c r="L4" s="8">
-        <v>4</v>
-      </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="9">
         <v>230</v>
       </c>
@@ -775,9 +769,7 @@
       <c r="A5" s="13">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B5" s="14">
-        <v>223</v>
-      </c>
+      <c r="B5" s="14"/>
       <c r="C5" s="17">
         <v>230</v>
       </c>
@@ -787,9 +779,7 @@
       <c r="F5" s="13">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G5" s="14">
-        <v>187</v>
-      </c>
+      <c r="G5" s="14"/>
       <c r="H5" s="15">
         <v>154</v>
       </c>
@@ -799,9 +789,7 @@
       <c r="K5" s="13">
         <v>0.29166666666666669</v>
       </c>
-      <c r="L5" s="14">
-        <v>390</v>
-      </c>
+      <c r="L5" s="14"/>
       <c r="M5" s="15">
         <v>230</v>
       </c>
@@ -813,9 +801,7 @@
       <c r="A6" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B6" s="4">
-        <v>112</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="16">
         <v>230</v>
       </c>
@@ -825,9 +811,7 @@
       <c r="F6" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G6" s="4">
-        <v>152</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="5">
         <v>230</v>
       </c>
@@ -837,9 +821,7 @@
       <c r="K6" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L6" s="4">
-        <v>89</v>
-      </c>
+      <c r="L6" s="4"/>
       <c r="M6" s="5">
         <v>230</v>
       </c>
@@ -851,9 +833,7 @@
       <c r="A7" s="7">
         <v>0.375</v>
       </c>
-      <c r="B7" s="8">
-        <v>155</v>
-      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="16">
         <v>230</v>
       </c>
@@ -863,9 +843,7 @@
       <c r="F7" s="7">
         <v>0.375</v>
       </c>
-      <c r="G7" s="8">
-        <v>164</v>
-      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="5">
         <v>230</v>
       </c>
@@ -875,9 +853,7 @@
       <c r="K7" s="7">
         <v>0.375</v>
       </c>
-      <c r="L7" s="8">
-        <v>29</v>
-      </c>
+      <c r="L7" s="8"/>
       <c r="M7" s="5">
         <v>230</v>
       </c>
@@ -889,9 +865,7 @@
       <c r="A8" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B8" s="8">
-        <v>216</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="17">
         <v>230</v>
       </c>
@@ -901,9 +875,7 @@
       <c r="F8" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G8" s="8">
-        <v>79</v>
-      </c>
+      <c r="G8" s="8"/>
       <c r="H8" s="9">
         <v>230</v>
       </c>
@@ -913,9 +885,7 @@
       <c r="K8" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="L8" s="8">
-        <v>289</v>
-      </c>
+      <c r="L8" s="8"/>
       <c r="M8" s="9">
         <v>230</v>
       </c>
@@ -927,9 +897,7 @@
       <c r="A9" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B9" s="8">
-        <v>114</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="17">
         <v>230</v>
       </c>
@@ -939,9 +907,7 @@
       <c r="F9" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G9" s="8">
-        <v>202</v>
-      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="15">
         <v>230</v>
       </c>
@@ -951,9 +917,7 @@
       <c r="K9" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="L9" s="8">
-        <v>298</v>
-      </c>
+      <c r="L9" s="8"/>
       <c r="M9" s="15">
         <v>230</v>
       </c>
@@ -965,9 +929,7 @@
       <c r="A10" s="7">
         <v>0.5</v>
       </c>
-      <c r="B10" s="8">
-        <v>100</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="16">
         <v>230</v>
       </c>
@@ -977,9 +939,7 @@
       <c r="F10" s="7">
         <v>0.5</v>
       </c>
-      <c r="G10" s="8">
-        <v>203</v>
-      </c>
+      <c r="G10" s="8"/>
       <c r="H10" s="5">
         <v>230</v>
       </c>
@@ -989,9 +949,7 @@
       <c r="K10" s="7">
         <v>0.5</v>
       </c>
-      <c r="L10" s="8">
-        <v>38</v>
-      </c>
+      <c r="L10" s="8"/>
       <c r="M10" s="5">
         <v>230</v>
       </c>
@@ -1003,9 +961,7 @@
       <c r="A11" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B11" s="8">
-        <v>100</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="9">
         <v>230</v>
       </c>
@@ -1015,9 +971,7 @@
       <c r="F11" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G11" s="8">
-        <v>203</v>
-      </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="9">
         <v>230</v>
       </c>
@@ -1027,9 +981,7 @@
       <c r="K11" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="L11" s="8">
-        <v>239</v>
-      </c>
+      <c r="L11" s="8"/>
       <c r="M11" s="9">
         <v>230</v>
       </c>
@@ -1043,7 +995,7 @@
       </c>
       <c r="B12" s="11">
         <f>SUM(B2:B11)</f>
-        <v>1482</v>
+        <v>311</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" ref="C12:D12" si="0">SUM(C2:C11)</f>
@@ -1058,7 +1010,7 @@
       </c>
       <c r="G12" s="11">
         <f>SUM(G2:G11)</f>
-        <v>1516</v>
+        <v>266</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" ref="H12:I12" si="1">SUM(H2:H11)</f>
@@ -1073,7 +1025,7 @@
       </c>
       <c r="L12" s="11">
         <f>SUM(L2:L11)</f>
-        <v>1679</v>
+        <v>192</v>
       </c>
       <c r="M12" s="12">
         <f t="shared" ref="M12:N12" si="2">SUM(M2:M11)</f>

--- a/hourly_production_lines.xlsx
+++ b/hourly_production_lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/OmarPerez/Documents/production_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E62A20-560D-B241-8833-AE3E504965C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCCC969-8FAD-5D4A-A2C4-845213D23CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,7 +737,9 @@
       <c r="A4" s="7">
         <v>0.25</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8">
+        <v>161</v>
+      </c>
       <c r="C4" s="17">
         <v>154</v>
       </c>
@@ -747,7 +749,9 @@
       <c r="F4" s="7">
         <v>0.25</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8">
+        <v>164</v>
+      </c>
       <c r="H4" s="9">
         <v>230</v>
       </c>
@@ -757,7 +761,9 @@
       <c r="K4" s="7">
         <v>0.25</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="8">
+        <v>125</v>
+      </c>
       <c r="M4" s="9">
         <v>230</v>
       </c>
@@ -995,7 +1001,7 @@
       </c>
       <c r="B12" s="11">
         <f>SUM(B2:B11)</f>
-        <v>311</v>
+        <v>472</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" ref="C12:D12" si="0">SUM(C2:C11)</f>
@@ -1010,7 +1016,7 @@
       </c>
       <c r="G12" s="11">
         <f>SUM(G2:G11)</f>
-        <v>266</v>
+        <v>430</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" ref="H12:I12" si="1">SUM(H2:H11)</f>
@@ -1025,7 +1031,7 @@
       </c>
       <c r="L12" s="11">
         <f>SUM(L2:L11)</f>
-        <v>192</v>
+        <v>317</v>
       </c>
       <c r="M12" s="12">
         <f t="shared" ref="M12:N12" si="2">SUM(M2:M11)</f>

--- a/hourly_production_lines.xlsx
+++ b/hourly_production_lines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/OmarPerez/Documents/production_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCCC969-8FAD-5D4A-A2C4-845213D23CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAB2BA2-9572-254D-93D4-B42FEEFAB54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,7 +775,9 @@
       <c r="A5" s="13">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="14">
+        <v>100</v>
+      </c>
       <c r="C5" s="17">
         <v>230</v>
       </c>
@@ -785,7 +787,9 @@
       <c r="F5" s="13">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="8">
+        <v>100</v>
+      </c>
       <c r="H5" s="15">
         <v>154</v>
       </c>
@@ -795,7 +799,9 @@
       <c r="K5" s="13">
         <v>0.29166666666666669</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="8">
+        <v>100</v>
+      </c>
       <c r="M5" s="15">
         <v>230</v>
       </c>
@@ -807,7 +813,9 @@
       <c r="A6" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>100</v>
+      </c>
       <c r="C6" s="16">
         <v>230</v>
       </c>
@@ -817,7 +825,9 @@
       <c r="F6" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="8">
+        <v>100</v>
+      </c>
       <c r="H6" s="5">
         <v>230</v>
       </c>
@@ -827,7 +837,9 @@
       <c r="K6" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="8">
+        <v>100</v>
+      </c>
       <c r="M6" s="5">
         <v>230</v>
       </c>
@@ -839,7 +851,9 @@
       <c r="A7" s="7">
         <v>0.375</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8">
+        <v>100</v>
+      </c>
       <c r="C7" s="16">
         <v>230</v>
       </c>
@@ -849,7 +863,9 @@
       <c r="F7" s="7">
         <v>0.375</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8">
+        <v>100</v>
+      </c>
       <c r="H7" s="5">
         <v>230</v>
       </c>
@@ -859,7 +875,9 @@
       <c r="K7" s="7">
         <v>0.375</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8">
+        <v>100</v>
+      </c>
       <c r="M7" s="5">
         <v>230</v>
       </c>
@@ -871,7 +889,9 @@
       <c r="A8" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8">
+        <v>100</v>
+      </c>
       <c r="C8" s="17">
         <v>230</v>
       </c>
@@ -881,7 +901,9 @@
       <c r="F8" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8">
+        <v>100</v>
+      </c>
       <c r="H8" s="9">
         <v>230</v>
       </c>
@@ -891,7 +913,9 @@
       <c r="K8" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="8">
+        <v>100</v>
+      </c>
       <c r="M8" s="9">
         <v>230</v>
       </c>
@@ -903,7 +927,9 @@
       <c r="A9" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <v>100</v>
+      </c>
       <c r="C9" s="17">
         <v>230</v>
       </c>
@@ -913,7 +939,9 @@
       <c r="F9" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8">
+        <v>100</v>
+      </c>
       <c r="H9" s="15">
         <v>230</v>
       </c>
@@ -923,7 +951,9 @@
       <c r="K9" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="8">
+        <v>100</v>
+      </c>
       <c r="M9" s="15">
         <v>230</v>
       </c>
@@ -935,7 +965,9 @@
       <c r="A10" s="7">
         <v>0.5</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <v>100</v>
+      </c>
       <c r="C10" s="16">
         <v>230</v>
       </c>
@@ -945,7 +977,9 @@
       <c r="F10" s="7">
         <v>0.5</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8">
+        <v>100</v>
+      </c>
       <c r="H10" s="5">
         <v>230</v>
       </c>
@@ -955,7 +989,9 @@
       <c r="K10" s="7">
         <v>0.5</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8">
+        <v>100</v>
+      </c>
       <c r="M10" s="5">
         <v>230</v>
       </c>
@@ -967,7 +1003,9 @@
       <c r="A11" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <v>100</v>
+      </c>
       <c r="C11" s="9">
         <v>230</v>
       </c>
@@ -977,7 +1015,9 @@
       <c r="F11" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8">
+        <v>100</v>
+      </c>
       <c r="H11" s="9">
         <v>230</v>
       </c>
@@ -987,7 +1027,9 @@
       <c r="K11" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="8">
+        <v>100</v>
+      </c>
       <c r="M11" s="9">
         <v>230</v>
       </c>
@@ -1001,7 +1043,7 @@
       </c>
       <c r="B12" s="11">
         <f>SUM(B2:B11)</f>
-        <v>472</v>
+        <v>1172</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" ref="C12:D12" si="0">SUM(C2:C11)</f>
@@ -1016,7 +1058,7 @@
       </c>
       <c r="G12" s="11">
         <f>SUM(G2:G11)</f>
-        <v>430</v>
+        <v>1130</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" ref="H12:I12" si="1">SUM(H2:H11)</f>
@@ -1031,7 +1073,7 @@
       </c>
       <c r="L12" s="11">
         <f>SUM(L2:L11)</f>
-        <v>317</v>
+        <v>1017</v>
       </c>
       <c r="M12" s="12">
         <f t="shared" ref="M12:N12" si="2">SUM(M2:M11)</f>

--- a/hourly_production_lines.xlsx
+++ b/hourly_production_lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/OmarPerez/Documents/production_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAB2BA2-9572-254D-93D4-B42FEEFAB54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272B92B-C7B0-7341-AD2E-CCAA068C8272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{81E560FD-B0FE-C94C-8FE2-30D0BC964491}"/>
   </bookViews>
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +130,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -255,9 +261,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -285,9 +288,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -295,6 +295,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -614,7 +620,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,425 +667,425 @@
       <c r="A2" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B2" s="4">
-        <v>108</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="16">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4">
         <v>115</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="F2" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G2" s="4">
-        <v>70</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="16">
+        <v>84</v>
+      </c>
+      <c r="H2" s="4">
         <v>115</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
       <c r="K2" s="3">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
+      <c r="L2" s="16">
+        <v>89</v>
+      </c>
+      <c r="M2" s="4">
         <v>115</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>0.20833333333333334</v>
       </c>
-      <c r="B3" s="4">
-        <v>203</v>
-      </c>
-      <c r="C3" s="16">
-        <v>230</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="B3" s="16">
+        <v>196</v>
+      </c>
+      <c r="C3" s="14">
+        <v>230</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G3" s="4">
-        <v>196</v>
-      </c>
-      <c r="H3" s="5">
-        <v>230</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="G3" s="16">
+        <v>179</v>
+      </c>
+      <c r="H3" s="4">
+        <v>230</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
         <v>0.20833333333333334</v>
       </c>
-      <c r="L3" s="4">
-        <v>192</v>
-      </c>
-      <c r="M3" s="5">
-        <v>230</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="L3" s="16">
+        <v>119</v>
+      </c>
+      <c r="M3" s="4">
+        <v>230</v>
+      </c>
+      <c r="N3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>0.25</v>
       </c>
-      <c r="B4" s="8">
-        <v>161</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="16">
+        <v>220</v>
+      </c>
+      <c r="C4" s="15">
         <v>154</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
         <v>0.25</v>
       </c>
-      <c r="G4" s="8">
-        <v>164</v>
-      </c>
-      <c r="H4" s="9">
-        <v>230</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="G4" s="16">
+        <v>144</v>
+      </c>
+      <c r="H4" s="8">
+        <v>230</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>0.25</v>
       </c>
-      <c r="L4" s="8">
-        <v>125</v>
-      </c>
-      <c r="M4" s="9">
-        <v>230</v>
-      </c>
-      <c r="N4" s="9">
+      <c r="L4" s="16">
+        <v>11</v>
+      </c>
+      <c r="M4" s="8">
+        <v>230</v>
+      </c>
+      <c r="N4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="16">
+        <v>213</v>
+      </c>
+      <c r="C5" s="15">
+        <v>230</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G5" s="16">
+        <v>185</v>
+      </c>
+      <c r="H5" s="13">
+        <v>154</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="L5" s="16">
+        <v>5</v>
+      </c>
+      <c r="M5" s="13">
+        <v>230</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B6" s="16">
+        <v>219</v>
+      </c>
+      <c r="C6" s="14">
+        <v>230</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G6" s="16">
+        <v>208</v>
+      </c>
+      <c r="H6" s="4">
+        <v>230</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L6" s="16">
+        <v>121</v>
+      </c>
+      <c r="M6" s="4">
+        <v>230</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="B7" s="16">
+        <v>195</v>
+      </c>
+      <c r="C7" s="14">
+        <v>230</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="G7" s="16">
+        <v>187</v>
+      </c>
+      <c r="H7" s="4">
+        <v>230</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="L7" s="16">
+        <v>181</v>
+      </c>
+      <c r="M7" s="4">
+        <v>230</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B8" s="17">
+        <v>179</v>
+      </c>
+      <c r="C8" s="15">
+        <v>230</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G8" s="17">
+        <v>190</v>
+      </c>
+      <c r="H8" s="8">
+        <v>230</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L8" s="17">
+        <v>167</v>
+      </c>
+      <c r="M8" s="8">
+        <v>230</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>230</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>230</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>230</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>230</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>230</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>230</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>230</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>230</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L11" s="7">
         <v>100</v>
       </c>
-      <c r="C5" s="17">
-        <v>230</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="G5" s="8">
-        <v>100</v>
-      </c>
-      <c r="H5" s="15">
-        <v>154</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="L5" s="8">
-        <v>100</v>
-      </c>
-      <c r="M5" s="15">
-        <v>230</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B6" s="4">
-        <v>100</v>
-      </c>
-      <c r="C6" s="16">
-        <v>230</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G6" s="8">
-        <v>100</v>
-      </c>
-      <c r="H6" s="5">
-        <v>230</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L6" s="8">
-        <v>100</v>
-      </c>
-      <c r="M6" s="5">
-        <v>230</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="B7" s="8">
-        <v>100</v>
-      </c>
-      <c r="C7" s="16">
-        <v>230</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="G7" s="8">
-        <v>100</v>
-      </c>
-      <c r="H7" s="5">
-        <v>230</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="L7" s="8">
-        <v>100</v>
-      </c>
-      <c r="M7" s="5">
-        <v>230</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B8" s="8">
-        <v>100</v>
-      </c>
-      <c r="C8" s="17">
-        <v>230</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G8" s="8">
-        <v>100</v>
-      </c>
-      <c r="H8" s="9">
-        <v>230</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L8" s="8">
-        <v>100</v>
-      </c>
-      <c r="M8" s="9">
-        <v>230</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B9" s="8">
-        <v>100</v>
-      </c>
-      <c r="C9" s="17">
-        <v>230</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G9" s="8">
-        <v>100</v>
-      </c>
-      <c r="H9" s="15">
-        <v>230</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="L9" s="8">
-        <v>100</v>
-      </c>
-      <c r="M9" s="15">
-        <v>230</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="B10" s="8">
-        <v>100</v>
-      </c>
-      <c r="C10" s="16">
-        <v>230</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="8">
-        <v>100</v>
-      </c>
-      <c r="H10" s="5">
-        <v>230</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="8">
-        <v>100</v>
-      </c>
-      <c r="M10" s="5">
-        <v>230</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B11" s="8">
-        <v>100</v>
-      </c>
-      <c r="C11" s="9">
-        <v>230</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G11" s="8">
-        <v>100</v>
-      </c>
-      <c r="H11" s="9">
-        <v>230</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="L11" s="8">
-        <v>100</v>
-      </c>
-      <c r="M11" s="9">
-        <v>230</v>
-      </c>
-      <c r="N11" s="9">
+      <c r="M11" s="8">
+        <v>230</v>
+      </c>
+      <c r="N11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <f>SUM(B2:B11)</f>
-        <v>1172</v>
-      </c>
-      <c r="C12" s="12">
+        <v>1309</v>
+      </c>
+      <c r="C12" s="11">
         <f t="shared" ref="C12:D12" si="0">SUM(C2:C11)</f>
         <v>2109</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f>SUM(G2:G11)</f>
-        <v>1130</v>
-      </c>
-      <c r="H12" s="12">
+        <v>1177</v>
+      </c>
+      <c r="H12" s="11">
         <f t="shared" ref="H12:I12" si="1">SUM(H2:H11)</f>
         <v>2109</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <f>SUM(L2:L11)</f>
-        <v>1017</v>
-      </c>
-      <c r="M12" s="12">
+        <v>793</v>
+      </c>
+      <c r="M12" s="11">
         <f t="shared" ref="M12:N12" si="2">SUM(M2:M11)</f>
         <v>2185</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
